--- a/Figures/Coding Results.xlsx
+++ b/Figures/Coding Results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC06725-2DF6-6C44-8D52-370A60218271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C98178-D71B-BC4D-B25C-F859CA2864CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="27940" windowHeight="17300" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$34:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$52:$C$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>Random Forest</t>
   </si>
@@ -183,16 +183,77 @@
   </si>
   <si>
     <t>Non-Linear Regression</t>
+  </si>
+  <si>
+    <t>'model__weights': 'distance'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__p': 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__n_neighbors': 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__algorithm': 'kd_tree'</t>
+  </si>
+  <si>
+    <t>'model__n_estimators': 451</t>
+  </si>
+  <si>
+    <t>'model__subsample': 0.8999999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__reg_alpha': 13.848863713938718</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__n_estimators': 792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__learning_rate': 0.0533669923120631</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__gamma': 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__colsample_bytree': 0.5</t>
+  </si>
+  <si>
+    <t>'model__kernel': 'rbf'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__C': 0.004534878508128582</t>
+  </si>
+  <si>
+    <t>'model__splitter': 'best'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__min_samples_split': 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__min_samples_leaf': 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__max_depth': 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model__criterion': 'poisson'</t>
+  </si>
+  <si>
+    <t>Total time to run was 1262 m 12.0 s</t>
+  </si>
+  <si>
+    <t>Total time to run was 1526m 61.9s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -264,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -423,14 +484,25 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -439,7 +511,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -459,7 +531,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -473,8 +544,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -489,10 +559,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -829,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295FF467-F39B-E846-B3B4-AC5A41CE746C}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,16 +918,17 @@
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -860,7 +937,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="15"/>
@@ -868,7 +945,7 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="15"/>
@@ -890,19 +967,18 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
@@ -917,20 +993,19 @@
       <c r="E4" s="1">
         <v>0.70221926130424295</v>
       </c>
-      <c r="F4" s="19"/>
       <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="4">
         <v>0.262153383627588</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <f>EXP(H4)</f>
         <v>1.2997258838120678</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
@@ -945,20 +1020,19 @@
       <c r="E5" s="1">
         <v>0.63180682779682695</v>
       </c>
-      <c r="F5" s="19"/>
       <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4">
         <v>0.30578861370160598</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <f>EXP(H5)</f>
         <v>1.3576952780328433</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -973,20 +1047,19 @@
       <c r="E6" s="1">
         <v>0.49561807038689398</v>
       </c>
-      <c r="F6" s="19"/>
       <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="4">
         <v>0.31399552486342103</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <f>EXP(H6)</f>
         <v>1.3688836105925504</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -1001,20 +1074,19 @@
       <c r="E7" s="1">
         <v>0.48464964581425302</v>
       </c>
-      <c r="F7" s="19"/>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="4">
         <v>0.32718377417470701</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <f>EXP(H7)</f>
         <v>1.3870563588968747</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
@@ -1029,38 +1101,37 @@
       <c r="E8" s="1">
         <v>0.416431087988681</v>
       </c>
-      <c r="F8" s="19"/>
       <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="4">
         <v>0.34655297557726999</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <f>EXP(H8)</f>
         <v>1.4141844090814428</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>0.39866652172337502</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>0.39866652172337502</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>0.38094426719313901</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>0.38405381176029502</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1068,7 +1139,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="15"/>
@@ -1076,7 +1147,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="42" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="15"/>
@@ -1092,21 +1163,20 @@
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="8"/>
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="11">
@@ -1118,20 +1188,19 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="19"/>
       <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="12">
         <v>210.05901312827999</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <f>H14/60</f>
         <v>3.5009835521379999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="11">
@@ -1143,20 +1212,19 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="19"/>
       <c r="G15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="12">
         <v>132.06330394744799</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <f>H15/60</f>
         <v>2.2010550657907997</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="11">
@@ -1168,20 +1236,19 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="19"/>
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="12">
         <v>1.9843788146972601</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f>H16/60</f>
         <v>3.3072980244954336E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="11">
@@ -1193,20 +1260,19 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="19"/>
       <c r="G17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="12">
         <v>0.25777578353881803</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <f>H17/60</f>
         <v>4.2962630589803005E-3</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11">
@@ -1218,43 +1284,42 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="19"/>
       <c r="G18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="12">
         <v>0.12965488433837799</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <f>H18/60</f>
         <v>2.1609147389729665E-3</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>0.20777916908264099</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <f t="shared" si="0"/>
         <v>3.4629861513773498E-3</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="32"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="15"/>
@@ -1292,27 +1357,16 @@
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="36"/>
+      <c r="S24" s="34"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1">
@@ -1327,43 +1381,41 @@
       <c r="E25" s="1">
         <v>0.72861100000000001</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="37">
+      <c r="G25" s="35">
         <v>0.53787955662787201</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <v>0.63320614652127505</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="35">
         <v>0.63465199602942601</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="35">
         <v>0.52296471885735596</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="35">
         <v>0.72964163827053097</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="37" t="s">
+      <c r="O25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="P25" s="37" t="s">
+      <c r="P25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="37"/>
-      <c r="S25" s="39"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="37"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1">
@@ -1378,39 +1430,37 @@
       <c r="E26" s="1">
         <v>0.53305400000000003</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="37">
+      <c r="G26" s="35">
         <v>0.41972416500719401</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="35">
         <v>0.452934589628539</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="35">
         <v>0.53737946918386104</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="35">
         <v>0.41972416500719401</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="35">
         <v>0.41959371072726998</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="O26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="39"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="37"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1">
@@ -1425,47 +1475,45 @@
       <c r="E27" s="1">
         <v>0.519957</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="37">
+      <c r="G27" s="35">
         <v>0.38524175841896202</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="35">
         <v>0.41522357182557401</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="35">
         <v>0.39690614775566102</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="35">
         <v>0.525421523002088</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="35">
         <v>0.40311345705153501</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="N27" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="37" t="s">
+      <c r="O27" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="37" t="s">
+      <c r="P27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="S27" s="39" t="s">
+      <c r="S27" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="1">
@@ -1480,41 +1528,39 @@
       <c r="E28" s="1">
         <v>0.41386200000000001</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="37">
+      <c r="G28" s="35">
         <v>0.42489863753917101</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="35">
         <v>0.42464860208973398</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="35">
         <v>0.42480080022688999</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="35">
         <v>0.42419202363250802</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="35">
         <v>0.42422463587296899</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="N28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="39"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1">
@@ -1529,79 +1575,77 @@
       <c r="E29" s="1">
         <v>0.37946000000000002</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="37">
+      <c r="G29" s="35">
         <v>0.394210178908313</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="35">
         <v>0.39416669592103099</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="35">
         <v>0.39414495147290202</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="35">
         <v>0.39407972699198002</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="35">
         <v>0.39401450369285401</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="38" t="s">
+      <c r="M29" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="39"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="37"/>
     </row>
     <row r="30" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>0.37871899999999997</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>0.37871899999999997</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>0.37125599999999997</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>0.373643</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="40">
+      <c r="F30" s="24"/>
+      <c r="G30" s="38">
         <v>0.28763220946797502</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="38">
         <v>0.37871919037452501</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="38">
         <v>0.32843059973000799</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="38">
         <v>0.28763220946797502</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="38">
         <v>0.25048643918208302</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="41" t="s">
+      <c r="L30" s="24"/>
+      <c r="M30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="42"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="40"/>
     </row>
     <row r="31" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1611,16 +1655,26 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="34"/>
+      <c r="F33" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>9</v>
       </c>
@@ -1630,12 +1684,17 @@
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="10">
@@ -1645,13 +1704,18 @@
         <f t="shared" ref="C35:D40" si="1">B35/60</f>
         <v>371.34586236666667</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="43">
         <f t="shared" si="1"/>
         <v>6.1890977061111112</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="10">
@@ -1661,13 +1725,18 @@
         <f t="shared" si="1"/>
         <v>43.512551716666664</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="43">
         <f t="shared" si="1"/>
         <v>0.72520919527777772</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="10">
@@ -1677,13 +1746,18 @@
         <f t="shared" si="1"/>
         <v>1.4978615499999999</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="43">
         <f t="shared" si="1"/>
         <v>2.4964359166666665E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="10">
@@ -1693,13 +1767,18 @@
         <f t="shared" si="1"/>
         <v>1.1870258500000002</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="43">
         <f t="shared" si="1"/>
         <v>1.9783764166666669E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="10">
@@ -1709,29 +1788,29 @@
         <f t="shared" si="1"/>
         <v>0.175624</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="43">
         <f t="shared" si="1"/>
         <v>2.9270666666666666E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="28">
         <v>1.975976</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="28">
         <f t="shared" si="1"/>
         <v>3.2932933333333331E-2</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="44">
         <f t="shared" si="1"/>
         <v>5.4888222222222217E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>47</v>
       </c>
@@ -1740,10 +1819,10 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
+      <c r="G42" s="53"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1752,141 +1831,312 @@
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.262153383627588</v>
+      <c r="E43" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="48">
+        <v>0.25017499999999998</v>
       </c>
       <c r="C44" s="7">
         <f>EXP(B44)</f>
-        <v>1.2997258838120678</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.30578861370160598</v>
+        <v>1.2842501407984479</v>
+      </c>
+      <c r="E44">
+        <v>-0.32897774728429202</v>
+      </c>
+      <c r="F44">
+        <v>-0.25017540849459302</v>
+      </c>
+      <c r="G44">
+        <v>-0.32964439427914899</v>
+      </c>
+      <c r="H44">
+        <v>-0.32925578587908499</v>
+      </c>
+      <c r="I44">
+        <v>-0.25541308262097301</v>
+      </c>
+      <c r="M44" t="s">
+        <v>48</v>
+      </c>
+      <c r="N44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" t="s">
+        <v>50</v>
+      </c>
+      <c r="P44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="48">
+        <v>0.251253</v>
       </c>
       <c r="C45" s="7">
         <f>EXP(B45)</f>
-        <v>1.3576952780328433</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="12">
-        <v>210.05901312827999</v>
-      </c>
-      <c r="G45" s="27">
-        <f>F45/60</f>
-        <v>3.5009835521379999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+        <v>1.285635308921707</v>
+      </c>
+      <c r="E45">
+        <v>-0.32121036527248498</v>
+      </c>
+      <c r="F45">
+        <v>-0.29818173065333298</v>
+      </c>
+      <c r="G45">
+        <v>-0.29812623830192497</v>
+      </c>
+      <c r="H45">
+        <v>-0.321063095035101</v>
+      </c>
+      <c r="I45">
+        <v>-0.25125287148228098</v>
+      </c>
+      <c r="M45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="4">
-        <v>0.31399552486342103</v>
+      <c r="B46" s="48">
+        <v>0.32823799999999997</v>
       </c>
       <c r="C46" s="7">
         <f>EXP(B46)</f>
-        <v>1.3688836105925504</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12">
-        <v>132.06330394744799</v>
-      </c>
-      <c r="G46" s="27">
-        <f>F46/60</f>
-        <v>2.2010550657907997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.32718377417470701</v>
+        <v>1.3885194005842245</v>
+      </c>
+      <c r="E46">
+        <v>-0.42207265217490197</v>
+      </c>
+      <c r="F46">
+        <v>-0.32823761326192702</v>
+      </c>
+      <c r="G46">
+        <v>-0.33398838572616502</v>
+      </c>
+      <c r="H46">
+        <v>-0.346997076419225</v>
+      </c>
+      <c r="I46">
+        <v>-0.37405609729755701</v>
+      </c>
+      <c r="M46" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="48">
+        <v>0.33343600000000001</v>
       </c>
       <c r="C47" s="7">
         <f>EXP(B47)</f>
-        <v>1.3870563588968747</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="6" t="s">
+        <v>1.3957557153171711</v>
+      </c>
+      <c r="E47">
+        <v>-0.34870804341442801</v>
+      </c>
+      <c r="F47">
+        <v>-78.3311994831638</v>
+      </c>
+      <c r="G47">
+        <v>-0.334045061822836</v>
+      </c>
+      <c r="H47">
+        <v>-0.33343585843838103</v>
+      </c>
+      <c r="I47">
+        <v>-0.36487257503220699</v>
+      </c>
+      <c r="M47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="12">
-        <v>1.9843788146972601</v>
-      </c>
-      <c r="G47" s="27">
-        <f>F47/60</f>
-        <v>3.3072980244954336E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.34655297557726999</v>
+      <c r="B48" s="48">
+        <v>0.35898799999999997</v>
       </c>
       <c r="C48" s="7">
         <f>EXP(B48)</f>
-        <v>1.4141844090814428</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="6" t="s">
+        <v>1.431879618913136</v>
+      </c>
+      <c r="E48">
+        <v>-0.369503196176589</v>
+      </c>
+      <c r="F48">
+        <v>-0.35898769422640397</v>
+      </c>
+      <c r="G48">
+        <v>-0.36390188194087603</v>
+      </c>
+      <c r="H48">
+        <v>-0.36516125415511302</v>
+      </c>
+      <c r="I48">
+        <v>-0.36401557476928498</v>
+      </c>
+      <c r="M48" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48" t="s">
+        <v>62</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="55"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="53"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="12">
+        <v>70757.658322999996</v>
+      </c>
+      <c r="C53" s="54">
+        <f>B53/60</f>
+        <v>1179.2943053833333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="12">
+        <v>4563.0052029999997</v>
+      </c>
+      <c r="C54" s="54">
+        <f>B54/60</f>
+        <v>76.050086716666655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="12">
+        <v>328.668612</v>
+      </c>
+      <c r="C55" s="54">
+        <f>B55/60</f>
+        <v>5.4778101999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="12">
-        <v>0.25777578353881803</v>
-      </c>
-      <c r="G48" s="27">
-        <f>F48/60</f>
-        <v>4.2962630589803005E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="51">
-        <v>0.12965488433837799</v>
-      </c>
-      <c r="G49" s="52">
-        <f>F49/60</f>
-        <v>2.1609147389729665E-3</v>
+      <c r="B56" s="12">
+        <v>75.773065000000003</v>
+      </c>
+      <c r="C56" s="54">
+        <f>B56/60</f>
+        <v>1.2628844166666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="12">
+        <v>6.759328</v>
+      </c>
+      <c r="C57" s="54">
+        <f>B57/60</f>
+        <v>0.11265546666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="56" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Coding Results.xlsx
+++ b/Figures/Coding Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C98178-D71B-BC4D-B25C-F859CA2864CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F5AA7-8CE2-F347-9D3F-2BD4B713296C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="20040" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>Random Forest</t>
   </si>
@@ -243,6 +243,27 @@
   </si>
   <si>
     <t>Total time to run was 1526m 61.9s</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min_samples_split: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min_samples_leaf: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_features: sqrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_depth: 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n_estimators: 451</t>
   </si>
 </sst>
 </file>
@@ -253,7 +274,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -325,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -479,19 +500,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -511,7 +519,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -559,16 +567,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -907,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295FF467-F39B-E846-B3B4-AC5A41CE746C}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1374,7 @@
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M24" s="8" t="s">
@@ -1655,23 +1672,23 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="17"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -1687,10 +1704,10 @@
       <c r="D34" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -1708,10 +1725,10 @@
         <f t="shared" si="1"/>
         <v>6.1890977061111112</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -1729,10 +1746,10 @@
         <f t="shared" si="1"/>
         <v>0.72520919527777772</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -1750,10 +1767,10 @@
         <f t="shared" si="1"/>
         <v>2.4964359166666665E-2</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50"/>
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -1771,10 +1788,10 @@
         <f t="shared" si="1"/>
         <v>1.9783764166666669E-2</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="52"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50"/>
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -1819,7 +1836,6 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="45" t="s">
@@ -1831,7 +1847,7 @@
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M43" s="8" t="s">
@@ -1842,7 +1858,7 @@
       <c r="A44" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="47">
         <v>0.25017499999999998</v>
       </c>
       <c r="C44" s="7">
@@ -1881,7 +1897,7 @@
       <c r="A45" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="48">
+      <c r="B45" s="47">
         <v>0.251253</v>
       </c>
       <c r="C45" s="7">
@@ -1923,7 +1939,7 @@
       <c r="A46" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="48">
+      <c r="B46" s="47">
         <v>0.32823799999999997</v>
       </c>
       <c r="C46" s="7">
@@ -1971,7 +1987,7 @@
       <c r="A47" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="48">
+      <c r="B47" s="47">
         <v>0.33343600000000001</v>
       </c>
       <c r="C47" s="7">
@@ -2007,7 +2023,7 @@
       <c r="A48" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="47">
         <v>0.35898799999999997</v>
       </c>
       <c r="C48" s="7">
@@ -2045,101 +2061,161 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="53"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M51" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="54"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="N52" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="12">
         <v>70757.658322999996</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="10">
         <f>B53/60</f>
         <v>1179.2943053833333</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="53">
+        <f t="shared" ref="D53:D57" si="2">C53/60</f>
+        <v>19.65490508972222</v>
+      </c>
+      <c r="M53" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="12">
         <v>4563.0052029999997</v>
       </c>
-      <c r="C54" s="54">
+      <c r="C54" s="10">
         <f>B54/60</f>
         <v>76.050086716666655</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="53">
+        <f t="shared" si="2"/>
+        <v>1.2675014452777775</v>
+      </c>
+      <c r="M54" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="N54" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="12">
         <v>328.668612</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="10">
         <f>B55/60</f>
         <v>5.4778101999999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="53">
+        <f t="shared" si="2"/>
+        <v>9.1296836666666659E-2</v>
+      </c>
+      <c r="M55" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="N55" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="12">
         <v>75.773065000000003</v>
       </c>
-      <c r="C56" s="54">
+      <c r="C56" s="10">
         <f>B56/60</f>
         <v>1.2628844166666666</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="53">
+        <f t="shared" si="2"/>
+        <v>2.104807361111111E-2</v>
+      </c>
+      <c r="M56" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="N56" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="12">
         <v>6.759328</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="10">
         <f>B57/60</f>
         <v>0.11265546666666666</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="56" t="s">
+      <c r="D57" s="53">
+        <f t="shared" si="2"/>
+        <v>1.877591111111111E-3</v>
+      </c>
+      <c r="M57" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="N57" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="44"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="52" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M51:N51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>